--- a/tests/testthat/test_data/6/extraCol.xlsx
+++ b/tests/testthat/test_data/6/extraCol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C0E4B-0FE3-744C-A718-EEDBFABD2781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51A96E-6253-4541-ABA0-5B3D4A3CE69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,38 +28,38 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>B04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +190,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -536,8 +543,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,7 +904,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,31 +930,31 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
